--- a/biology/Virologie/LYRa11/LYRa11.xlsx
+++ b/biology/Virologie/LYRa11/LYRa11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus LYRa11 est une souche de coronavirus associé au SRAS (espèce SARSr-CoV), qui a été identifié en 2011 dans des échantillons de chauves-souris Rhinolophus affinis à Baoshan dans le Yunnan en Chine.
-Le génome de cette souche virale a une longueur de 29 805 bases et est à 91 % similaire à la séquence génomique entière du SRAS-CoV, responsable l'épidémie de SRAS[1].
-Le virus LYRa11, comme le SARS-CoV et le SARS-CoV-2, utilise l'ACE2 comme récepteur pour infecter les cellules[2].
+Le génome de cette souche virale a une longueur de 29 805 bases et est à 91 % similaire à la séquence génomique entière du SRAS-CoV, responsable l'épidémie de SRAS.
+Le virus LYRa11, comme le SARS-CoV et le SARS-CoV-2, utilise l'ACE2 comme récepteur pour infecter les cellules.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Animal hôte :
